--- a/config_hlw/fish3d_map_config.xlsx
+++ b/config_hlw/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="291">
   <si>
     <t>line|行号</t>
   </si>
@@ -48,55 +48,10 @@
     <t>炸弹鱼</t>
   </si>
   <si>
-    <t>虎鲸</t>
-  </si>
-  <si>
-    <t>Fish3D029</t>
-  </si>
-  <si>
-    <t>Fish3D036</t>
-  </si>
-  <si>
-    <t>深海霸主，体形庞大，听说是身价上亿的海中富豪。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体态优美，身型匀称，童话世界中的精灵美人鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体型巨大，晒太阳时总让人以为是座小岛，小鱼也喜欢躲在他肚子下乘凉。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>外形看起来十分吓人，实际上非常温顺，而且胆子很小。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>喜欢在黑暗中惊吓别人，但捉迷藏从来没有赢过。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生开始头顶就有一小团火苗，因此也让他无时无刻焦急不安。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>脾气暴躁，风风火火，一旦生气不计后果，从来不会顾及身边有谁。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>优哉游哉，与世无争，但是聪明过人，只是一点脾气都没有。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>骄傲自大，总认为自己是海底的霸主，常常自找苦头。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>天生长者一对大眼睛，一脸无辜的样子让人不忍心捕捉。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -105,26 +60,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>同样喜欢晒太阳，但聪明的她总会选择隐秘的地方享受。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是大白鲨的亲戚，行事却十分高调，喜欢炫耀自己的战绩与收获。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底的土豪，从头到脚都有黄金作饰品，以被人围观而感到自豪。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>有海中雷震子之称，难以捕获。被捕获后，有几率触发闪电连，附近的小鱼就要遭殃了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中横行无忌的物种，难以捕获。别捕获后，他会交出秘密武器“电磁炮”让你当一回深海霸主。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -133,31 +68,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>6倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>35倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab|预制体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一群命运共同体的鱼，不过任意一条标记有“一网打尽”的鱼，其他的将同时被捕获。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -186,14 +101,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>霸王蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金锤头鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -211,176 +118,734 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>财神</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+  </si>
+  <si>
+    <t>Fish3D046</t>
+  </si>
+  <si>
+    <t>Fish3D047</t>
+  </si>
+  <si>
+    <t>Fish3D057</t>
+  </si>
+  <si>
+    <t>2倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id|场次ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos|坐标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu101</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu102</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu103</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu104</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu106</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu107</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu108</t>
+  </si>
+  <si>
+    <t>小黄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蓝鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水母</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D102</t>
+  </si>
+  <si>
+    <t>Fish3D103</t>
+  </si>
+  <si>
+    <t>Fish3D104</t>
+  </si>
+  <si>
+    <t>Fish3D106</t>
+  </si>
+  <si>
+    <t>Fish3D107</t>
+  </si>
+  <si>
+    <t>Fish3D108</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+  </si>
+  <si>
+    <t>小旗鱼</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0,0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>锯齿鲨</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>小海龟</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+  </si>
+  <si>
+    <t>蝴蝶鱼</t>
+  </si>
+  <si>
+    <t>FishNew021</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu59</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu60</t>
+  </si>
+  <si>
+    <t>鲇鱼</t>
+  </si>
+  <si>
+    <t>FishNew022</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu61</t>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+  </si>
+  <si>
+    <t>FishNew052</t>
+  </si>
+  <si>
+    <t>FishNew045</t>
+  </si>
+  <si>
+    <t>虎鲨</t>
+  </si>
+  <si>
+    <t>FishNew024</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+  </si>
+  <si>
+    <t>金鲤鱼</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+  </si>
+  <si>
+    <t>黄金灯笼鱼</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+  </si>
+  <si>
+    <t>黄金狮子鱼</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+  </si>
+  <si>
+    <t>黄金海龟</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+  </si>
+  <si>
+    <t>黄金河豚</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+  </si>
+  <si>
+    <t>金蟾</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+  </si>
+  <si>
+    <t>大金鲨</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+  </si>
+  <si>
+    <t>穿云蟹</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+  </si>
+  <si>
+    <t>电磁蟹</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+  </si>
+  <si>
+    <t>强击蟹</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+  </si>
+  <si>
+    <t>骰子龟</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+  </si>
+  <si>
+    <t>金龙转盘</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+  </si>
+  <si>
+    <t>炽火龙王</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+  </si>
+  <si>
+    <t>黄金巨龙</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+  </si>
+  <si>
+    <t>深海巨鲸</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+  </si>
+  <si>
+    <t>荧光女皇</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+  </si>
+  <si>
+    <t>麒麟兽</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+  </si>
+  <si>
+    <t>海盗船</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+  </si>
+  <si>
+    <t>深海狂鲨</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+  </si>
+  <si>
+    <t>bk_icon_bk</t>
+  </si>
+  <si>
+    <t>鳄鱼宝箱</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu62</t>
+  </si>
+  <si>
+    <t>鲤鱼女王</t>
+  </si>
+  <si>
+    <t>想和我玩吗，骄傲而美丽的鲤鱼女皇说道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu64</t>
+  </si>
+  <si>
+    <t>金甲大虾</t>
+  </si>
+  <si>
+    <t>刺角蓝鲸</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu65</t>
+  </si>
+  <si>
+    <t>锯齿海象</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu63</t>
+  </si>
+  <si>
+    <t>熔岩巨鲨</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢在黑暗中惊吓别人，但捉迷藏从来没有赢过。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0,0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样喜欢晒太阳，但聪明的她总会选择隐秘的地方享受。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外形看起来十分吓人，实际上非常温顺，而且胆子很小。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>35倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机智聪明，调皮好动，加上可爱的外表，一直深受大家喜爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骄傲自大，总认为自己是海底的霸主，常常自找苦头。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾气暴躁，风风火火，一旦生气不计后果，从来不会顾及身边有谁。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>2,3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>巨大灯笼鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金河豚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大金鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu29</t>
-  </si>
-  <si>
-    <t>穿云蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-  </si>
-  <si>
-    <t>宝藏章鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙转盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-  </si>
-  <si>
-    <t>财神</t>
-  </si>
-  <si>
-    <t>鲨鱼将军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荧光女皇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu43</t>
-  </si>
-  <si>
-    <t>麒麟兽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财宝蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu47</t>
-  </si>
-  <si>
-    <t>深海狂鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大小丑鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大燕鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金灯笼鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金狮子鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金海龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美人鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>骰子龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炽火龙王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金巨龙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D071</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D045</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D072</t>
-  </si>
-  <si>
-    <t>Fish3D073</t>
-  </si>
-  <si>
-    <t>Fish3D074</t>
-  </si>
-  <si>
-    <t>Fish3D020</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D081</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D079</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D046</t>
-  </si>
-  <si>
-    <t>Fish3D047</t>
+    <t>特殊奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生开始头顶就有一小团火苗，因此也让他无时无刻焦急不安。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew023</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D027</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D049</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D048</t>
+    <t>海底的土豪，从头到脚都有黄金作饰品，以被人围观而感到自豪。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是大白鲨的亲戚，行事却十分高调，喜欢炫耀自己的战绩与收获。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.6,-2.5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -388,6 +853,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>有海中雷震子之称，难以捕获。被捕获后，有几率触发闪电连，附近的小鱼就要遭殃了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D030</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -396,27 +865,111 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>深海中横行无忌的物种，难以捕获。别捕获后，他会交出秘密武器“电磁炮”让你当一回深海霸主。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D041</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体态优美，身型匀称，童话世界中的精灵美人鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D050</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D052</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D076</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D053</t>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -424,176 +977,83 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>体型巨大，晒太阳时总让人以为是座小岛，小鱼也喜欢躲在他肚子下乘凉。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D054</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D083</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D056</t>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew046</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D082</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D057</t>
-  </si>
-  <si>
-    <t>Fish3D058</t>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew054</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D077</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D059</t>
-  </si>
-  <si>
-    <t>2倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_id|场次ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
+    <t>深海霸主，体形庞大，听说是身价上亿的海中富豪。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew012</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -601,63 +1061,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <t>最高800倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -665,163 +1069,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -829,115 +1077,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~80倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.6,-2.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5,50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos|坐标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
+    <t>一群命运共同体的鱼，不过任意一条标记有“一网打尽”的鱼，其他的将同时被捕获。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>别妄想让我缴械投降！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这条蓝鲸拥有的刺角，高贵而美丽。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海里的顶级掠食者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡于海底的的王者。当它苏醒时，熔岩也将为它沸腾。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -953,171 +1129,16 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>50-100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D089</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hby</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3DHB</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5分钟出现一次，击杀后有极大概率直接获得福利券！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu101</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu102</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu103</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu104</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu105</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu106</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu107</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu108</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu109</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu110</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu111</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu112</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu113</t>
-  </si>
-  <si>
-    <t>小黄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小蓝鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小飞鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小丑鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯笼鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水母</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶鲤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小锦鲤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙虾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>河豚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海马</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D102</t>
-  </si>
-  <si>
-    <t>Fish3D103</t>
-  </si>
-  <si>
-    <t>Fish3D104</t>
-  </si>
-  <si>
-    <t>Fish3D105</t>
-  </si>
-  <si>
-    <t>Fish3D106</t>
-  </si>
-  <si>
-    <t>Fish3D107</t>
-  </si>
-  <si>
-    <t>Fish3D108</t>
-  </si>
-  <si>
-    <t>Fish3D109</t>
-  </si>
-  <si>
-    <t>Fish3D110</t>
-  </si>
-  <si>
-    <t>Fish3D111</t>
-  </si>
-  <si>
-    <t>Fish3D112</t>
-  </si>
-  <si>
-    <t>Fish3D113</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,8 +1200,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,7 +1223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1265,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,6 +1336,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1581,15 +1630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1611,7 +1660,7 @@
     <col min="21" max="24" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1628,660 +1677,643 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B16" si="0">B3+2</f>
         <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5">
         <v>8</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="11" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>270</v>
+        <v>56</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5">
         <v>8</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>271</v>
+        <v>57</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5">
         <v>8</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>226</v>
-      </c>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5">
         <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>273</v>
+        <v>59</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>269</v>
+        <v>63</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G6" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>226</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I6" s="23"/>
       <c r="J6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>274</v>
+        <v>67</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5">
         <v>5</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>226</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>262</v>
+        <v>54</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G8" s="5">
         <v>5</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>251</v>
+        <v>48</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5">
         <v>5</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="11" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G10" s="5">
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>278</v>
+        <v>165</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>279</v>
+        <v>168</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G12" s="5">
         <v>4</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>280</v>
+        <v>171</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G13" s="5">
         <v>5</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>281</v>
+        <v>176</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G14" s="5">
         <v>5</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>282</v>
+        <v>179</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G15" s="5">
         <v>4</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>76</v>
+        <v>183</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G16" s="5">
         <v>4</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>77</v>
+        <v>185</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f>B18+2</f>
         <v>22</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G17" s="5">
         <v>3</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>78</v>
+        <v>187</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2292,33 +2324,33 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G18" s="5">
         <v>3</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>79</v>
+        <v>189</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2329,35 +2361,35 @@
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G19" s="5">
         <v>3</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>80</v>
+        <v>191</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2368,33 +2400,33 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G20" s="5">
         <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>81</v>
+        <v>193</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2405,43 +2437,43 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G21" s="5">
         <v>2</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>82</v>
+        <v>196</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="N21" s="8"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="6"/>
+      <c r="P21" s="7"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="2"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2452,40 +2484,40 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="G22" s="5">
         <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>83</v>
+        <v>199</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="7"/>
+        <v>201</v>
+      </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="6"/>
+      <c r="P22" s="7"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2496,42 +2528,42 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="G23" s="5">
         <v>2</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>84</v>
+        <v>203</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>204</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N23" s="7"/>
+        <v>178</v>
+      </c>
       <c r="O23" s="7"/>
-      <c r="P23" s="6"/>
+      <c r="P23" s="7"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="2"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2542,40 +2574,40 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="N24" s="7"/>
+        <v>206</v>
+      </c>
       <c r="O24" s="7"/>
-      <c r="P24" s="6"/>
+      <c r="P24" s="7"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2586,42 +2618,42 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="N25" s="7"/>
+        <v>208</v>
+      </c>
       <c r="O25" s="7"/>
-      <c r="P25" s="6"/>
+      <c r="P25" s="7"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2632,40 +2664,40 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="G26" s="5">
         <v>3</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>87</v>
+        <v>165</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="7"/>
+        <v>210</v>
+      </c>
       <c r="O26" s="7"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2676,41 +2708,41 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="G27" s="5">
         <v>3</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>88</v>
+        <v>193</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>211</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2721,33 +2753,32 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G28" s="5">
         <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>89</v>
+        <v>214</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>216</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2755,8 +2786,9 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2767,35 +2799,35 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G29" s="5">
         <v>3</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>90</v>
+        <v>199</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>218</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2806,31 +2838,30 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G30" s="5">
         <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>91</v>
+        <v>199</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>32</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2838,8 +2869,9 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2850,31 +2882,30 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="G31" s="5">
         <v>3</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>92</v>
+        <v>199</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>222</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2882,8 +2913,9 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2894,32 +2926,32 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G32" s="5">
         <v>3</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>93</v>
+        <v>199</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2930,32 +2962,32 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G33" s="5">
         <v>3</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>94</v>
+        <v>199</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2966,32 +2998,32 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G34" s="5">
         <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>10</v>
+        <v>199</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3002,32 +3034,32 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="G35" s="5">
         <v>3</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>95</v>
+        <v>199</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3038,32 +3070,32 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="G36" s="5">
         <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>96</v>
+        <v>199</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3074,34 +3106,34 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="G37" s="5">
         <v>3</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>97</v>
+        <v>199</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>235</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3112,30 +3144,30 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="5">
         <v>3</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>98</v>
+        <v>199</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>237</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3146,34 +3178,34 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="G39" s="5">
         <v>0.5</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>11</v>
+        <v>241</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3184,32 +3216,32 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="G40" s="5">
         <v>3</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>99</v>
+        <v>245</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3220,32 +3252,32 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="G41" s="5">
         <v>0.5</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>249</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3256,32 +3288,32 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="G42" s="5">
         <v>2</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>101</v>
+        <v>241</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3292,30 +3324,30 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="5">
         <v>3</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>102</v>
+        <v>254</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3326,33 +3358,33 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="G44" s="5">
         <v>1.5</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>103</v>
+        <v>258</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>259</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="M44" s="18"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3363,30 +3395,30 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="5">
         <v>1</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>104</v>
+        <v>254</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>261</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3397,30 +3429,30 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="5">
         <v>1</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>105</v>
+        <v>254</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3431,33 +3463,33 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="G47" s="5">
         <v>2</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>106</v>
+        <v>264</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>265</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3468,32 +3500,32 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>107</v>
+        <v>258</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>267</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3504,32 +3536,32 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>108</v>
+        <v>248</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>269</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3540,32 +3572,32 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="G50" s="5">
         <v>3</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>162</v>
+        <v>271</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3576,97 +3608,241 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="5">
         <v>2</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>51</v>
       </c>
-      <c r="C52" s="3">
-        <v>3</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>233</v>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G52" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>276</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>52</v>
       </c>
-      <c r="C53" s="3">
-        <v>3</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>240</v>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G53" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="K53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L53" s="18" t="s">
-        <v>242</v>
+      <c r="K54" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="23"/>
+      <c r="J55" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="L56" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G57" s="5">
+        <v>4</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" s="23"/>
+      <c r="J57" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/fish3d_map_config.xlsx
+++ b/config_hlw/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="296">
   <si>
     <t>line|行号</t>
   </si>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
   </si>
   <si>
@@ -785,10 +781,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>60~100倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -829,10 +821,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>100~160倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1138,6 +1126,38 @@
   </si>
   <si>
     <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1633,9 +1653,9 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B57"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1668,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1686,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1709,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>19</v>
@@ -1728,10 +1748,10 @@
         <v>26</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -1746,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>19</v>
@@ -1765,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>10</v>
@@ -1783,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>19</v>
@@ -1798,16 +1818,16 @@
         <v>16</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1822,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>19</v>
@@ -1837,13 +1857,13 @@
         <v>16</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>11</v>
@@ -1861,29 +1881,29 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="5">
         <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>68</v>
-      </c>
       <c r="L6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="2"/>
@@ -1899,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>19</v>
@@ -1914,16 +1934,16 @@
         <v>16</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1938,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>19</v>
@@ -1953,13 +1973,13 @@
         <v>16</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>9</v>
@@ -1977,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>19</v>
@@ -1996,10 +2016,10 @@
         <v>29</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
@@ -2015,31 +2035,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="G10" s="5">
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="J10" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="L10" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2054,29 +2074,29 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="L11" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>170</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -2091,29 +2111,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="5">
         <v>4</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="L12" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2129,31 +2149,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="5">
         <v>5</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="L13" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>178</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2169,29 +2189,29 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="5">
         <v>5</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2206,31 +2226,31 @@
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="5">
         <v>4</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I15" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>184</v>
-      </c>
       <c r="L15" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2245,31 +2265,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="5">
         <v>4</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -2284,31 +2304,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="5">
         <v>3</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J17" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="2"/>
@@ -2330,23 +2350,23 @@
         <v>7</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="5">
         <v>3</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>190</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2364,28 +2384,28 @@
         <v>22</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" s="5">
         <v>3</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>175</v>
-      </c>
       <c r="J19" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2400,29 +2420,29 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="F20" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="5">
         <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="L20" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2437,31 +2457,31 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21" s="5">
         <v>2</v>
       </c>
       <c r="H21" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>175</v>
-      </c>
       <c r="J21" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>197</v>
-      </c>
       <c r="L21" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="7"/>
@@ -2484,29 +2504,29 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G22" s="5">
         <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="L22" s="18" t="s">
         <v>200</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -2528,31 +2548,31 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="F23" s="11" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="G23" s="5">
         <v>2</v>
       </c>
       <c r="H23" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>175</v>
-      </c>
       <c r="J23" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2574,29 +2594,29 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="F24" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2618,31 +2638,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="F25" s="11" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="H25" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>175</v>
-      </c>
       <c r="J25" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2664,29 +2684,29 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="5">
         <v>3</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2708,29 +2728,29 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="F27" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G27" s="5">
         <v>3</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="7"/>
@@ -2753,31 +2773,31 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="F28" s="11" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="G28" s="5">
         <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="23" t="s">
-        <v>175</v>
-      </c>
       <c r="J28" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2799,31 +2819,31 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="F29" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G29" s="5">
         <v>3</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2838,29 +2858,29 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="F30" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G30" s="5">
         <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2882,29 +2902,29 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="F31" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G31" s="5">
         <v>3</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2926,29 +2946,29 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="F32" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G32" s="5">
         <v>3</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2962,29 +2982,29 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="F33" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="5">
         <v>3</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2998,29 +3018,29 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="F34" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G34" s="5">
         <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3034,29 +3054,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="F35" s="11" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="G35" s="5">
         <v>3</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3070,29 +3090,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="G36" s="5">
         <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3106,31 +3126,31 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="F37" s="11" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="G37" s="5">
         <v>3</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3144,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>20</v>
@@ -3154,17 +3174,17 @@
         <v>3</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3178,31 +3198,31 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="F39" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G39" s="5">
         <v>0.5</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I39" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L39" s="20" t="s">
         <v>240</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="K39" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3216,29 +3236,29 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G40" s="5">
         <v>3</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3252,29 +3272,29 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="F41" s="11" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="G41" s="5">
         <v>0.5</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3288,29 +3308,29 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G42" s="5">
         <v>2</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3324,27 +3344,27 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="5">
         <v>3</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3358,29 +3378,29 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="G44" s="5">
         <v>1.5</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3395,27 +3415,27 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="5">
         <v>1</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3429,10 +3449,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="5">
@@ -3443,13 +3463,13 @@
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3463,29 +3483,29 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G47" s="5">
         <v>2</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3500,29 +3520,29 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3536,29 +3556,29 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="F49" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3572,13 +3592,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="F50" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G50" s="5">
         <v>3</v>
@@ -3588,13 +3608,13 @@
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K50" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3608,25 +3628,25 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="5">
         <v>2</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3640,29 +3660,29 @@
         <v>2</v>
       </c>
       <c r="D52" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>151</v>
-      </c>
       <c r="F52" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G52" s="5">
         <v>2</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K52" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3676,29 +3696,29 @@
         <v>2</v>
       </c>
       <c r="D53" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="F53" s="11" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="G53" s="5">
         <v>2</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K53" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3712,29 +3732,29 @@
         <v>2</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="G54" s="5">
         <v>2</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3748,29 +3768,29 @@
         <v>2</v>
       </c>
       <c r="D55" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="F55" s="11" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="G55" s="5">
         <v>2</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K55" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3784,29 +3804,29 @@
         <v>2</v>
       </c>
       <c r="D56" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="F56" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G56" s="5">
         <v>2</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I56" s="23"/>
       <c r="J56" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3820,29 +3840,29 @@
         <v>3</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G57" s="5">
         <v>4</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/fish3d_map_config.xlsx
+++ b/config_hlw/fish3d_map_config.xlsx
@@ -194,9 +194,6 @@
     <t>3dby_icon_yu102</t>
   </si>
   <si>
-    <t>3dby_icon_yu103</t>
-  </si>
-  <si>
     <t>3dby_icon_yu104</t>
   </si>
   <si>
@@ -900,55 +897,333 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu63</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu59</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu61</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu62</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu65</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+  </si>
+  <si>
+    <t>小蓝鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小旗鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
+  </si>
+  <si>
+    <t>蝴蝶鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲇鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鲤鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金海龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金河豚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蟾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金独角鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美人鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙转盘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽火龙王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金巨龙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海巨鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧光女皇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟兽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海狂鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼女王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲大虾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺角蓝鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯齿海象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩巨鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_icon_yu66</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu63</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu59</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu50</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
+    <t>3dby_icon_yu68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu70</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -956,289 +1231,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu61</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu62</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu65</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D089</t>
-  </si>
-  <si>
-    <t>小蓝鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小旗鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔雀鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤头鲨</t>
-  </si>
-  <si>
-    <t>蝴蝶鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲇鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鲤鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金猪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金锤头鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金海龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金河豚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金独角鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿云蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏章鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美人鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>骰子龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙转盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炽火龙王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金巨龙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸王蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海巨鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荧光女皇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>麒麟兽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财宝蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海狂鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼宝箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼女王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金甲大虾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺角蓝鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锯齿海象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩巨鲨</t>
+    <t>3dby_icon_yu67</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu69</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu110</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1752,9 +1753,9 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1831,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>18</v>
@@ -1847,7 +1848,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>31</v>
@@ -1868,7 +1869,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>18</v>
@@ -1884,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>9</v>
@@ -1902,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
@@ -1923,7 +1924,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>30</v>
@@ -1941,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>18</v>
@@ -1962,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>10</v>
@@ -1980,26 +1981,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>32</v>
@@ -2018,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>18</v>
@@ -2039,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>33</v>
@@ -2057,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>18</v>
@@ -2078,7 +2079,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>8</v>
@@ -2096,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>18</v>
@@ -2115,7 +2116,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>32</v>
@@ -2134,31 +2135,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2173,29 +2174,29 @@
         <v>1</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>58</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -2210,29 +2211,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="2"/>
@@ -2248,31 +2249,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="L13" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
@@ -2288,29 +2289,29 @@
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2325,28 +2326,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="4">
         <v>4</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="K15" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>30</v>
@@ -2364,31 +2365,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -2403,31 +2404,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="2"/>
@@ -2449,23 +2450,23 @@
         <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2483,28 +2484,28 @@
         <v>21</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="J19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2519,29 +2520,29 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2556,31 +2557,31 @@
         <v>2</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="J21" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6"/>
@@ -2603,29 +2604,29 @@
         <v>3</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2647,31 +2648,31 @@
         <v>2</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="J23" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2693,29 +2694,29 @@
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="4">
         <v>3</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2737,31 +2738,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G25" s="4">
         <v>3</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2783,29 +2784,29 @@
         <v>2</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" s="4">
         <v>3</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K26" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2827,29 +2828,29 @@
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" s="4">
         <v>3</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6"/>
@@ -2872,31 +2873,31 @@
         <v>2</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G28" s="4">
         <v>2</v>
       </c>
       <c r="H28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="J28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2918,31 +2919,31 @@
         <v>3</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="4">
         <v>3</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2957,26 +2958,26 @@
         <v>3</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>29</v>
@@ -3001,29 +3002,29 @@
         <v>3</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3045,29 +3046,29 @@
         <v>3</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3081,29 +3082,29 @@
         <v>3</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" s="4">
         <v>3</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K33" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3117,29 +3118,29 @@
         <v>3</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G34" s="4">
         <v>2</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3153,29 +3154,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K35" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3189,29 +3190,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K36" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3225,31 +3226,31 @@
         <v>3</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G37" s="4">
         <v>3</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I37" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K37" s="23" t="s">
+      <c r="L37" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3263,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>19</v>
@@ -3273,17 +3274,17 @@
         <v>3</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K38" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3297,31 +3298,31 @@
         <v>2</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="4">
         <v>0.5</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I39" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="L39" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3335,29 +3336,29 @@
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G40" s="4">
         <v>3</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L40" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3371,29 +3372,29 @@
         <v>2</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G41" s="4">
         <v>0.5</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="L41" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3407,29 +3408,29 @@
         <v>2</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="4">
         <v>2</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K42" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3443,27 +3444,27 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="4">
         <v>3</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L43" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3477,29 +3478,29 @@
         <v>2</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="4">
         <v>1.5</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="L44" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="N44" s="15"/>
     </row>
@@ -3514,27 +3515,27 @@
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="4">
         <v>1</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K45" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L45" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3548,10 +3549,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="4">
@@ -3562,13 +3563,13 @@
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3582,29 +3583,29 @@
         <v>2</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G47" s="4">
         <v>2</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L47" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="K47" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="L47" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="N47" s="7"/>
     </row>
@@ -3619,29 +3620,29 @@
         <v>2</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3655,29 +3656,29 @@
         <v>2</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K49" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="L49" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3691,13 +3692,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G50" s="4">
         <v>3</v>
@@ -3707,13 +3708,13 @@
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="L50" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3727,25 +3728,25 @@
         <v>3</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="4">
         <v>2</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="10"/>
       <c r="K51" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3759,29 +3760,29 @@
         <v>2</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G52" s="4">
         <v>2</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3795,29 +3796,29 @@
         <v>2</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" s="4">
         <v>2</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="10" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3831,29 +3832,29 @@
         <v>2</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3867,29 +3868,29 @@
         <v>2</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G55" s="4">
         <v>2</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L55" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3903,29 +3904,29 @@
         <v>2</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G56" s="4">
         <v>2</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3939,29 +3940,29 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="G57" s="4">
         <v>4</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L57" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="K57" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/fish3d_map_config.xlsx
+++ b/config_hlw/fish3d_map_config.xlsx
@@ -203,9 +203,6 @@
     <t>3dby_icon_yu107</t>
   </si>
   <si>
-    <t>3dby_icon_yu108</t>
-  </si>
-  <si>
     <t>小黄鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1240,6 +1237,10 @@
   </si>
   <si>
     <t>3dby_icon_yu110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu111</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1755,7 +1756,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1832,7 +1833,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>18</v>
@@ -1848,7 +1849,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>31</v>
@@ -1869,7 +1870,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>18</v>
@@ -1885,7 +1886,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>9</v>
@@ -1903,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
@@ -1924,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>30</v>
@@ -1945,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>18</v>
@@ -1963,7 +1964,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>10</v>
@@ -1981,26 +1982,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>32</v>
@@ -2022,7 +2023,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>18</v>
@@ -2040,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>33</v>
@@ -2061,7 +2062,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>18</v>
@@ -2079,7 +2080,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>8</v>
@@ -2097,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>18</v>
@@ -2116,7 +2117,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>32</v>
@@ -2135,31 +2136,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2174,29 +2175,29 @@
         <v>1</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>57</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -2211,29 +2212,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>59</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="2"/>
@@ -2249,31 +2250,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="L13" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
@@ -2289,29 +2290,29 @@
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2326,28 +2327,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="4">
         <v>4</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="K15" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>30</v>
@@ -2365,31 +2366,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -2404,31 +2405,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="2"/>
@@ -2450,23 +2451,23 @@
         <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2484,28 +2485,28 @@
         <v>21</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="J19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2520,29 +2521,29 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2557,31 +2558,31 @@
         <v>2</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="J21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6"/>
@@ -2604,29 +2605,29 @@
         <v>3</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2648,31 +2649,31 @@
         <v>2</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="J23" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2694,29 +2695,29 @@
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="4">
         <v>3</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2738,31 +2739,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="4">
         <v>3</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2784,29 +2785,29 @@
         <v>2</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G26" s="4">
         <v>3</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2828,29 +2829,29 @@
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" s="4">
         <v>3</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6"/>
@@ -2873,31 +2874,31 @@
         <v>2</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" s="4">
         <v>2</v>
       </c>
       <c r="H28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="J28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="L28" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2919,31 +2920,31 @@
         <v>3</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="4">
         <v>3</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2958,26 +2959,26 @@
         <v>3</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>29</v>
@@ -3002,29 +3003,29 @@
         <v>3</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3046,29 +3047,29 @@
         <v>3</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K32" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3082,29 +3083,29 @@
         <v>3</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="4">
         <v>3</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K33" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3118,29 +3119,29 @@
         <v>3</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" s="4">
         <v>2</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3154,29 +3155,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3190,29 +3191,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K36" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L36" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3226,31 +3227,31 @@
         <v>3</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G37" s="4">
         <v>3</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="23" t="s">
+      <c r="L37" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3264,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>19</v>
@@ -3274,17 +3275,17 @@
         <v>3</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K38" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="L38" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3298,31 +3299,31 @@
         <v>2</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G39" s="4">
         <v>0.5</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="L39" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3336,29 +3337,29 @@
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="4">
         <v>3</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L40" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3372,29 +3373,29 @@
         <v>2</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G41" s="4">
         <v>0.5</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="L41" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3408,29 +3409,29 @@
         <v>2</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42" s="4">
         <v>2</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K42" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L42" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3444,27 +3445,27 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="4">
         <v>3</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L43" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3478,29 +3479,29 @@
         <v>2</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="4">
         <v>1.5</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="L44" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="N44" s="15"/>
     </row>
@@ -3515,27 +3516,27 @@
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="4">
         <v>1</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K45" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L45" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3549,10 +3550,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="4">
@@ -3563,13 +3564,13 @@
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3583,29 +3584,29 @@
         <v>2</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G47" s="4">
         <v>2</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L47" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="K47" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="L47" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="N47" s="7"/>
     </row>
@@ -3620,29 +3621,29 @@
         <v>2</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3656,29 +3657,29 @@
         <v>2</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K49" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L49" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3692,13 +3693,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50" s="4">
         <v>3</v>
@@ -3708,13 +3709,13 @@
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K50" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="L50" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3728,25 +3729,25 @@
         <v>3</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="4">
         <v>2</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="10"/>
       <c r="K51" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3760,29 +3761,29 @@
         <v>2</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G52" s="4">
         <v>2</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3796,29 +3797,29 @@
         <v>2</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" s="4">
         <v>2</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="10" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3832,29 +3833,29 @@
         <v>2</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3868,29 +3869,29 @@
         <v>2</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G55" s="4">
         <v>2</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L55" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3904,29 +3905,29 @@
         <v>2</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G56" s="4">
         <v>2</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3940,29 +3941,29 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="G57" s="4">
         <v>4</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L57" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="K57" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/fish3d_map_config.xlsx
+++ b/config_hlw/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="298">
   <si>
     <t>line|行号</t>
   </si>
@@ -249,6 +249,93 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>8倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>锯齿鲨</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>小海龟</t>
+  </si>
+  <si>
+    <t>FishNew021</t>
+  </si>
+  <si>
+    <t>FishNew022</t>
+  </si>
+  <si>
+    <t>FishNew052</t>
+  </si>
+  <si>
+    <t>FishNew045</t>
+  </si>
+  <si>
+    <t>FishNew024</t>
+  </si>
+  <si>
+    <t>bk_icon_bk</t>
+  </si>
+  <si>
+    <t>想和我玩吗，骄傲而美丽的鲤鱼女皇说道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢在黑暗中惊吓别人，但捉迷藏从来没有赢过。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>66</t>
     </r>
@@ -266,110 +353,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>8倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-  </si>
-  <si>
-    <t>锯齿鲨</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-  </si>
-  <si>
-    <t>小海龟</t>
-  </si>
-  <si>
-    <t>FishNew021</t>
-  </si>
-  <si>
-    <t>FishNew022</t>
-  </si>
-  <si>
-    <t>FishNew052</t>
-  </si>
-  <si>
-    <t>FishNew045</t>
-  </si>
-  <si>
-    <t>FishNew024</t>
-  </si>
-  <si>
-    <t>bk_icon_bk</t>
-  </si>
-  <si>
-    <t>想和我玩吗，骄傲而美丽的鲤鱼女皇说道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2,3,4,5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢在黑暗中惊吓别人，但捉迷藏从来没有赢过。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>66</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0,0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>0,-2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -790,9 +773,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew044</t>
-  </si>
-  <si>
     <t>FishNew028</t>
   </si>
   <si>
@@ -859,388 +839,405 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Fish3DBOX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D077</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu63</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu59</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu61</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu62</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu65</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+  </si>
+  <si>
+    <t>小蓝鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小旗鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
+  </si>
+  <si>
+    <t>蝴蝶鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲇鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鲤鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金海龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金河豚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蟾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金独角鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美人鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙转盘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽火龙王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金巨龙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海巨鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧光女皇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟兽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海狂鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼女王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲大虾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺角蓝鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯齿海象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩巨鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu70</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu67</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu69</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D118</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu66</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>FishNew054</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3DBOX</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew040</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D077</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu63</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu59</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu61</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu62</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu65</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D089</t>
-  </si>
-  <si>
-    <t>小蓝鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小旗鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔雀鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤头鲨</t>
-  </si>
-  <si>
-    <t>蝴蝶鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲇鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鲤鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金猪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金锤头鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金海龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金河豚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金独角鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿云蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏章鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美人鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>骰子龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙转盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炽火龙王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金巨龙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸王蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海巨鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荧光女皇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>麒麟兽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财宝蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海狂鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼宝箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼女王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金甲大虾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺角蓝鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锯齿海象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩巨鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu66</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu68</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu70</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu67</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu69</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu111</t>
+    <t>0,-3.8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>66,0,-180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1754,9 +1751,9 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1839,17 +1836,17 @@
         <v>18</v>
       </c>
       <c r="G2" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>31</v>
@@ -1870,16 +1867,16 @@
         <v>40</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="10" t="s">
@@ -1904,19 +1901,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>35</v>
@@ -1925,7 +1922,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>30</v>
@@ -1955,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>36</v>
@@ -1964,7 +1961,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>10</v>
@@ -1982,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>52</v>
@@ -1994,14 +1991,14 @@
         <v>5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>32</v>
@@ -2032,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>35</v>
@@ -2071,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>36</v>
@@ -2098,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>18</v>
@@ -2117,7 +2114,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>32</v>
@@ -2136,31 +2133,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="4">
-        <v>5</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2175,29 +2172,29 @@
         <v>1</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -2212,29 +2209,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="2"/>
@@ -2250,31 +2247,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="L13" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
@@ -2290,29 +2287,29 @@
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2327,28 +2324,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="4">
         <v>4</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="K15" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>30</v>
@@ -2366,31 +2363,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -2405,31 +2402,29 @@
         <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I17" s="20"/>
       <c r="J17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="2"/>
@@ -2451,23 +2446,23 @@
         <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2485,28 +2480,26 @@
         <v>21</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>76</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I19" s="20"/>
       <c r="J19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2521,29 +2514,29 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2558,31 +2551,31 @@
         <v>2</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="J21" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6"/>
@@ -2605,29 +2598,29 @@
         <v>3</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2649,31 +2642,31 @@
         <v>2</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="J23" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2695,29 +2688,31 @@
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="4">
         <v>3</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="20"/>
+        <v>296</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>297</v>
+      </c>
       <c r="J24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2739,31 +2734,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" s="4">
         <v>3</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2785,29 +2780,29 @@
         <v>2</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" s="4">
         <v>3</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2829,29 +2824,29 @@
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6"/>
@@ -2874,31 +2869,29 @@
         <v>2</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G28" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I28" s="20"/>
       <c r="J28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2920,31 +2913,31 @@
         <v>3</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="4">
         <v>3</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2959,26 +2952,26 @@
         <v>3</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>29</v>
@@ -3003,29 +2996,29 @@
         <v>3</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3047,29 +3040,29 @@
         <v>3</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K32" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3083,29 +3076,29 @@
         <v>3</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="4">
         <v>3</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K33" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3119,29 +3112,29 @@
         <v>3</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="4">
         <v>2</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3155,29 +3148,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K35" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3191,29 +3184,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K36" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3227,31 +3220,31 @@
         <v>3</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G37" s="4">
         <v>3</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I37" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K37" s="23" t="s">
+      <c r="L37" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3265,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>19</v>
@@ -3275,17 +3268,17 @@
         <v>3</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K38" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3299,31 +3292,31 @@
         <v>2</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" s="4">
         <v>0.5</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I39" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="L39" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3337,29 +3330,29 @@
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G40" s="4">
         <v>3</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L40" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3373,29 +3366,29 @@
         <v>2</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G41" s="4">
         <v>0.5</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="L41" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3409,29 +3402,29 @@
         <v>2</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G42" s="4">
         <v>2</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K42" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3445,27 +3438,27 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="4">
         <v>3</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3479,29 +3472,29 @@
         <v>2</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" s="4">
         <v>1.5</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="L44" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="N44" s="15"/>
     </row>
@@ -3516,27 +3509,27 @@
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="4">
         <v>1</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K45" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3550,10 +3543,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="4">
@@ -3564,13 +3557,13 @@
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3584,29 +3577,31 @@
         <v>2</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>295</v>
+      </c>
       <c r="J47" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="L47" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="K47" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="L47" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="N47" s="7"/>
     </row>
@@ -3621,29 +3616,29 @@
         <v>2</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3657,29 +3652,29 @@
         <v>2</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K49" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="L49" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3693,13 +3688,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G50" s="4">
         <v>3</v>
@@ -3709,13 +3704,13 @@
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="L50" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3729,25 +3724,25 @@
         <v>3</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="4">
         <v>2</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="10"/>
       <c r="K51" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3761,29 +3756,29 @@
         <v>2</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G52" s="4">
         <v>2</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3797,29 +3792,29 @@
         <v>2</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G53" s="4">
         <v>2</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="10" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3833,29 +3828,29 @@
         <v>2</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3869,29 +3864,29 @@
         <v>2</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G55" s="4">
         <v>2</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K55" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L55" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3905,29 +3900,29 @@
         <v>2</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G56" s="4">
         <v>2</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3941,29 +3936,29 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="G57" s="4">
         <v>4</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="L57" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="K57" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/fish3d_map_config.xlsx
+++ b/config_hlw/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="299">
   <si>
     <t>line|行号</t>
   </si>
@@ -308,10 +308,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0,-6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>80~100倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -381,863 +377,871 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>25倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外形看起来十分吓人，实际上非常温顺，而且胆子很小。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>35倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机智聪明，调皮好动，加上可爱的外表，一直深受大家喜爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骄傲自大，总认为自己是海底的霸主，常常自找苦头。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾气暴躁，风风火火，一旦生气不计后果，从来不会顾及身边有谁。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生开始头顶就有一小团火苗，因此也让他无时无刻焦急不安。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D027</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底的土豪，从头到脚都有黄金作饰品，以被人围观而感到自豪。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是大白鲨的亲戚，行事却十分高调，喜欢炫耀自己的战绩与收获。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.6,-2.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有海中雷震子之称，难以捕获。被捕获后，有几率触发闪电连，附近的小鱼就要遭殃了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中横行无忌的物种，难以捕获。别捕获后，他会交出秘密武器“电磁炮”让你当一回深海霸主。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体态优美，身型匀称，童话世界中的精灵美人鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D050</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D052</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D076</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体型巨大，晒太阳时总让人以为是座小岛，小鱼也喜欢躲在他肚子下乘凉。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D054</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew046</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D082</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海霸主，体形庞大，听说是身价上亿的海中富豪。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一群命运共同体的鱼，不过任意一条标记有“一网打尽”的鱼，其他的将同时被捕获。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>别妄想让我缴械投降！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这条蓝鲸拥有的刺角，高贵而美丽。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海里的顶级掠食者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡于海底的的王者。当它苏醒时，熔岩也将为它沸腾。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew028</t>
+  </si>
+  <si>
+    <t>FishNew016</t>
+  </si>
+  <si>
+    <t>FishNew034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D105</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D113</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D112</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D117</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D075</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D083</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3DBOX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D077</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu63</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu59</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu61</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu62</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu65</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+  </si>
+  <si>
+    <t>小蓝鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小旗鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
+  </si>
+  <si>
+    <t>蝴蝶鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲇鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鲤鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金海龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金河豚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蟾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金独角鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美人鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙转盘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽火龙王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金巨龙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海巨鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧光女皇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟兽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海狂鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼女王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲大虾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺角蓝鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯齿海象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩巨鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu70</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu67</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu69</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D118</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu66</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew054</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-3.8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>66,0,-180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>0,-4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>25倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>外形看起来十分吓人，实际上非常温顺，而且胆子很小。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>35倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机智聪明，调皮好动，加上可爱的外表，一直深受大家喜爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>骄傲自大，总认为自己是海底的霸主，常常自找苦头。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>脾气暴躁，风风火火，一旦生气不计后果，从来不会顾及身边有谁。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~80倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生开始头顶就有一小团火苗，因此也让他无时无刻焦急不安。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D027</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底的土豪，从头到脚都有黄金作饰品，以被人围观而感到自豪。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是大白鲨的亲戚，行事却十分高调，喜欢炫耀自己的战绩与收获。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.6,-2.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>有海中雷震子之称，难以捕获。被捕获后，有几率触发闪电连，附近的小鱼就要遭殃了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中横行无忌的物种，难以捕获。别捕获后，他会交出秘密武器“电磁炮”让你当一回深海霸主。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D041</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体态优美，身型匀称，童话世界中的精灵美人鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D050</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D051</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5,50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D052</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D076</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D036</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D028</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体型巨大，晒太阳时总让人以为是座小岛，小鱼也喜欢躲在他肚子下乘凉。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D054</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew046</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D082</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海霸主，体形庞大，听说是身价上亿的海中富豪。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一群命运共同体的鱼，不过任意一条标记有“一网打尽”的鱼，其他的将同时被捕获。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>别妄想让我缴械投降！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这条蓝鲸拥有的刺角，高贵而美丽。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew020</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海里的顶级掠食者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡于海底的的王者。当它苏醒时，熔岩也将为它沸腾。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D104</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D111</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew028</t>
-  </si>
-  <si>
-    <t>FishNew016</t>
-  </si>
-  <si>
-    <t>FishNew034</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew051</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D105</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D113</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D112</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D117</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew029</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D034</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D075</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D029</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D083</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3DBOX</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew040</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D077</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu63</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu59</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu61</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu62</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu65</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D089</t>
-  </si>
-  <si>
-    <t>小蓝鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小旗鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔雀鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤头鲨</t>
-  </si>
-  <si>
-    <t>蝴蝶鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲇鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鲤鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金猪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金锤头鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金海龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金河豚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金独角鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿云蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏章鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美人鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>骰子龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙转盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炽火龙王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金巨龙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸王蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海巨鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荧光女皇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>麒麟兽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财宝蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海狂鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼宝箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼女王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金甲大虾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺角蓝鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锯齿海象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩巨鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu68</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu70</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu67</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu69</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu111</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D118</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu66</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew054</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-3.8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>66,0,-180</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-4</t>
+    <t>0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1751,9 +1755,9 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1846,7 +1850,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>31</v>
@@ -1867,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>18</v>
@@ -1901,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
@@ -1922,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>30</v>
@@ -1961,7 +1965,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>10</v>
@@ -1979,10 +1983,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>52</v>
@@ -1998,7 +2002,7 @@
         <v>53</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>32</v>
@@ -2095,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>18</v>
@@ -2107,14 +2111,14 @@
         <v>5</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>32</v>
@@ -2133,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>65</v>
@@ -2147,17 +2151,15 @@
       <c r="H10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2188,13 +2190,13 @@
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -2225,13 +2227,13 @@
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="2"/>
@@ -2247,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>48</v>
@@ -2259,19 +2261,19 @@
         <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="L13" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
@@ -2287,29 +2289,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="J14" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>58</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2324,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>65</v>
@@ -2336,16 +2340,16 @@
         <v>4</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>30</v>
@@ -2363,10 +2367,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>65</v>
@@ -2375,19 +2379,17 @@
         <v>4</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="K16" s="22" t="s">
         <v>59</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -2402,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>65</v>
@@ -2414,17 +2416,17 @@
         <v>3</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K17" s="22" t="s">
         <v>60</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="2"/>
@@ -2456,13 +2458,13 @@
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>61</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2480,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>65</v>
@@ -2491,15 +2493,17 @@
       <c r="H19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="J19" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>62</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2514,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>65</v>
@@ -2526,17 +2530,17 @@
         <v>3</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2551,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>65</v>
@@ -2563,19 +2567,19 @@
         <v>2</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="J21" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6"/>
@@ -2598,29 +2602,29 @@
         <v>3</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2642,31 +2646,31 @@
         <v>2</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2688,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>65</v>
@@ -2700,19 +2704,19 @@
         <v>3</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2734,31 +2738,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G25" s="4">
         <v>3</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2780,29 +2784,29 @@
         <v>2</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G26" s="4">
         <v>3</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2824,13 +2828,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -2838,15 +2842,17 @@
       <c r="H27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="J27" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6"/>
@@ -2869,29 +2875,29 @@
         <v>2</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G28" s="4">
         <v>1.5</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2913,10 +2919,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>65</v>
@@ -2925,19 +2931,19 @@
         <v>3</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2952,10 +2958,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>65</v>
@@ -2968,10 +2974,10 @@
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>29</v>
@@ -2996,13 +3002,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
@@ -3012,13 +3018,13 @@
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3040,13 +3046,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
@@ -3056,13 +3062,13 @@
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3076,29 +3082,29 @@
         <v>3</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" s="4">
         <v>3</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3112,29 +3118,29 @@
         <v>3</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G34" s="4">
         <v>2</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3148,29 +3154,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3184,13 +3190,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
@@ -3200,13 +3206,13 @@
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3220,13 +3226,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G37" s="4">
         <v>3</v>
@@ -3235,16 +3241,16 @@
         <v>66</v>
       </c>
       <c r="I37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3258,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>19</v>
@@ -3272,13 +3278,13 @@
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3292,13 +3298,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G39" s="4">
         <v>0.5</v>
@@ -3307,16 +3313,16 @@
         <v>66</v>
       </c>
       <c r="I39" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="L39" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3330,13 +3336,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G40" s="4">
         <v>3</v>
@@ -3346,13 +3352,13 @@
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3366,13 +3372,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G41" s="4">
         <v>0.5</v>
@@ -3382,13 +3388,13 @@
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L41" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3402,13 +3408,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G42" s="4">
         <v>2</v>
@@ -3418,13 +3424,13 @@
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3438,10 +3444,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="4">
@@ -3452,13 +3458,13 @@
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3472,13 +3478,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G44" s="4">
         <v>1.5</v>
@@ -3488,13 +3494,13 @@
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="N44" s="15"/>
     </row>
@@ -3509,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="4">
@@ -3523,13 +3529,13 @@
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3543,10 +3549,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="4">
@@ -3557,13 +3563,13 @@
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3577,13 +3583,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G47" s="4">
         <v>1.5</v>
@@ -3592,16 +3598,16 @@
         <v>66</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N47" s="7"/>
     </row>
@@ -3616,13 +3622,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
@@ -3632,13 +3638,13 @@
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3652,13 +3658,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
@@ -3668,13 +3674,13 @@
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3688,13 +3694,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G50" s="4">
         <v>3</v>
@@ -3704,13 +3710,13 @@
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="L50" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3727,7 +3733,7 @@
         <v>63</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="4">
@@ -3739,10 +3745,10 @@
       <c r="I51" s="20"/>
       <c r="J51" s="10"/>
       <c r="K51" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3756,13 +3762,13 @@
         <v>2</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G52" s="4">
         <v>2</v>
@@ -3772,10 +3778,10 @@
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L52" s="15" t="s">
         <v>64</v>
@@ -3792,13 +3798,13 @@
         <v>2</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G53" s="4">
         <v>2</v>
@@ -3811,10 +3817,10 @@
         <v>34</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3828,13 +3834,13 @@
         <v>2</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
@@ -3844,13 +3850,13 @@
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3864,13 +3870,13 @@
         <v>2</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G55" s="4">
         <v>2</v>
@@ -3880,13 +3886,13 @@
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3900,13 +3906,13 @@
         <v>2</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G56" s="4">
         <v>2</v>
@@ -3916,13 +3922,13 @@
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3936,13 +3942,13 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="G57" s="4">
         <v>4</v>
@@ -3952,13 +3958,13 @@
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/fish3d_map_config.xlsx
+++ b/config_hlw/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="298">
   <si>
     <t>line|行号</t>
   </si>
@@ -734,10 +734,6 @@
   </si>
   <si>
     <t>2,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1755,9 +1751,9 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1850,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>31</v>
@@ -1871,7 +1867,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>18</v>
@@ -1905,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
@@ -1926,7 +1922,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>30</v>
@@ -1965,7 +1961,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>10</v>
@@ -1983,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>52</v>
@@ -2002,7 +1998,7 @@
         <v>53</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>32</v>
@@ -2099,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>18</v>
@@ -2118,7 +2114,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>32</v>
@@ -2137,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>65</v>
@@ -2156,7 +2152,7 @@
         <v>67</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>68</v>
@@ -2193,7 +2189,7 @@
         <v>69</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>70</v>
@@ -2230,7 +2226,7 @@
         <v>71</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>72</v>
@@ -2249,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>48</v>
@@ -2289,10 +2285,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>65</v>
@@ -2304,7 +2300,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>78</v>
@@ -2328,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>80</v>
@@ -2343,13 +2339,13 @@
         <v>17</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>81</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>30</v>
@@ -2367,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>65</v>
@@ -2379,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="10" t="s">
@@ -2404,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>65</v>
@@ -2482,7 +2478,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>65</v>
@@ -2494,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>88</v>
@@ -2518,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>65</v>
@@ -2537,7 +2533,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>91</v>
@@ -2555,10 +2551,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>65</v>
@@ -2576,7 +2572,7 @@
         <v>92</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>83</v>
@@ -2602,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>93</v>
@@ -2621,7 +2617,7 @@
         <v>94</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>95</v>
@@ -2646,10 +2642,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>167</v>
@@ -2658,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>74</v>
@@ -2667,7 +2663,7 @@
         <v>96</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>77</v>
@@ -2692,10 +2688,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>65</v>
@@ -2704,16 +2700,16 @@
         <v>3</v>
       </c>
       <c r="H24" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>294</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>295</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>97</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>98</v>
@@ -2738,10 +2734,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>168</v>
@@ -2784,10 +2780,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>93</v>
@@ -2828,10 +2824,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>93</v>
@@ -2843,13 +2839,13 @@
         <v>66</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>90</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>103</v>
@@ -2875,10 +2871,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>169</v>
@@ -2894,7 +2890,7 @@
         <v>104</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>105</v>
@@ -2919,10 +2915,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>65</v>
@@ -2940,7 +2936,7 @@
         <v>94</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>107</v>
@@ -2958,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>65</v>
@@ -3002,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>93</v>
@@ -3021,7 +3017,7 @@
         <v>94</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L31" s="15" t="s">
         <v>109</v>
@@ -3046,10 +3042,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>93</v>
@@ -3082,10 +3078,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>93</v>
@@ -3118,10 +3114,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>93</v>
@@ -3137,7 +3133,7 @@
         <v>94</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>114</v>
@@ -3154,10 +3150,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>167</v>
@@ -3190,10 +3186,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>170</v>
@@ -3226,10 +3222,10 @@
         <v>3</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>171</v>
@@ -3264,7 +3260,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>19</v>
@@ -3298,10 +3294,10 @@
         <v>2</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>125</v>
@@ -3336,10 +3332,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>130</v>
@@ -3355,7 +3351,7 @@
         <v>131</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L40" s="15" t="s">
         <v>132</v>
@@ -3372,14 +3368,12 @@
         <v>2</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>172</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="F41" s="10"/>
       <c r="G41" s="4">
         <v>0.5</v>
       </c>
@@ -3408,10 +3402,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>136</v>
@@ -3444,10 +3438,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="4">
@@ -3461,7 +3455,7 @@
         <v>139</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L43" s="15" t="s">
         <v>140</v>
@@ -3478,10 +3472,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>125</v>
@@ -3515,10 +3509,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="4">
@@ -3549,10 +3543,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="4">
@@ -3583,10 +3577,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>125</v>
@@ -3598,13 +3592,13 @@
         <v>66</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>148</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>149</v>
@@ -3622,10 +3616,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>171</v>
@@ -3641,7 +3635,7 @@
         <v>142</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>150</v>
@@ -3658,10 +3652,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>141</v>
@@ -3694,10 +3688,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>119</v>
@@ -3733,7 +3727,7 @@
         <v>63</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="4">
@@ -3745,7 +3739,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="10"/>
       <c r="K51" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L51" s="15" t="s">
         <v>156</v>
@@ -3762,10 +3756,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>125</v>
@@ -3781,7 +3775,7 @@
         <v>127</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L52" s="15" t="s">
         <v>64</v>
@@ -3798,10 +3792,10 @@
         <v>2</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>125</v>
@@ -3817,7 +3811,7 @@
         <v>34</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L53" s="15" t="s">
         <v>157</v>
@@ -3834,13 +3828,13 @@
         <v>2</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
@@ -3853,7 +3847,7 @@
         <v>127</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L54" s="15" t="s">
         <v>158</v>
@@ -3870,13 +3864,13 @@
         <v>2</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G55" s="4">
         <v>2</v>
@@ -3906,10 +3900,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>136</v>
@@ -3925,7 +3919,7 @@
         <v>127</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L56" s="15" t="s">
         <v>161</v>
@@ -3961,7 +3955,7 @@
         <v>165</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L57" s="15" t="s">
         <v>166</v>

--- a/config_hlw/fish3d_map_config.xlsx
+++ b/config_hlw/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="300">
   <si>
     <t>line|行号</t>
   </si>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>0,-2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -561,51 +557,683 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Fish3D036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体型巨大，晒太阳时总让人以为是座小岛，小鱼也喜欢躲在他肚子下乘凉。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D054</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew046</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D082</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海霸主，体形庞大，听说是身价上亿的海中富豪。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一群命运共同体的鱼，不过任意一条标记有“一网打尽”的鱼，其他的将同时被捕获。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>别妄想让我缴械投降！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这条蓝鲸拥有的刺角，高贵而美丽。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海里的顶级掠食者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡于海底的的王者。当它苏醒时，熔岩也将为它沸腾。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew028</t>
+  </si>
+  <si>
+    <t>FishNew016</t>
+  </si>
+  <si>
+    <t>FishNew034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D105</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D113</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D112</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D117</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D075</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D083</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3DBOX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D077</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu63</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu59</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu61</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu62</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu65</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+  </si>
+  <si>
+    <t>小蓝鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小旗鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
+  </si>
+  <si>
+    <t>蝴蝶鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲇鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鲤鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金海龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金河豚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蟾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金独角鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美人鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙转盘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽火龙王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金巨龙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海巨鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧光女皇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟兽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海狂鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼女王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲大虾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺角蓝鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯齿海象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩巨鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu70</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu67</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu69</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D118</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu66</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew054</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-3.8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>66,0,-180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>最高300倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D036</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D028</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体型巨大，晒太阳时总让人以为是座小岛，小鱼也喜欢躲在他肚子下乘凉。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D054</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <t>最高500倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -613,631 +1241,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
+    <t>最高400倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew046</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D082</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海霸主，体形庞大，听说是身价上亿的海中富豪。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一群命运共同体的鱼，不过任意一条标记有“一网打尽”的鱼，其他的将同时被捕获。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>别妄想让我缴械投降！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这条蓝鲸拥有的刺角，高贵而美丽。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew020</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海里的顶级掠食者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡于海底的的王者。当它苏醒时，熔岩也将为它沸腾。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D104</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D111</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew028</t>
-  </si>
-  <si>
-    <t>FishNew016</t>
-  </si>
-  <si>
-    <t>FishNew034</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew051</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D105</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D113</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D112</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D117</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew029</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D034</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D075</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D029</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D083</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3DBOX</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew040</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D077</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu63</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu59</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu61</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu62</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu65</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D089</t>
-  </si>
-  <si>
-    <t>小蓝鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小旗鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔雀鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤头鲨</t>
-  </si>
-  <si>
-    <t>蝴蝶鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲇鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鲤鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金猪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金锤头鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金海龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金河豚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金独角鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿云蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏章鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美人鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>骰子龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙转盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炽火龙王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金巨龙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸王蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海巨鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荧光女皇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>麒麟兽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财宝蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海狂鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼宝箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼女王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金甲大虾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺角蓝鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锯齿海象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩巨鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu68</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu70</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu67</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu69</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu111</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D118</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu66</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew054</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-3.8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>66,0,-180</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1751,9 +1759,9 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1786,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1804,7 +1812,7 @@
         <v>16</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1827,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>18</v>
@@ -1846,7 +1854,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>31</v>
@@ -1864,10 +1872,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>18</v>
@@ -1883,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>9</v>
@@ -1901,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
@@ -1916,13 +1924,13 @@
         <v>17</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>30</v>
@@ -1940,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>18</v>
@@ -1955,13 +1963,13 @@
         <v>17</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>10</v>
@@ -1979,13 +1987,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>
@@ -1995,10 +2003,10 @@
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>32</v>
@@ -2017,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>18</v>
@@ -2032,13 +2040,13 @@
         <v>17</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>33</v>
@@ -2056,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>18</v>
@@ -2071,13 +2079,13 @@
         <v>17</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>8</v>
@@ -2095,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>18</v>
@@ -2114,7 +2122,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>32</v>
@@ -2133,29 +2141,29 @@
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2170,29 +2178,29 @@
         <v>1</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -2207,29 +2215,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="2"/>
@@ -2245,31 +2253,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="L13" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
@@ -2285,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
@@ -2300,16 +2308,16 @@
         <v>17</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2324,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4">
         <v>4</v>
@@ -2339,13 +2347,13 @@
         <v>17</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>30</v>
@@ -2363,29 +2371,29 @@
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -2400,29 +2408,29 @@
         <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="2"/>
@@ -2444,23 +2452,23 @@
         <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2478,10 +2486,10 @@
         <v>21</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
@@ -2490,16 +2498,16 @@
         <v>17</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2514,29 +2522,29 @@
         <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2551,31 +2559,31 @@
         <v>2</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="J21" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6"/>
@@ -2598,29 +2606,29 @@
         <v>3</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2642,31 +2650,31 @@
         <v>2</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2688,31 +2696,31 @@
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4">
         <v>3</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2734,31 +2742,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G25" s="4">
         <v>3</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2780,29 +2788,29 @@
         <v>2</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="4">
         <v>3</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2824,31 +2832,31 @@
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6"/>
@@ -2871,29 +2879,29 @@
         <v>2</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G28" s="4">
         <v>1.5</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2915,31 +2923,31 @@
         <v>3</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="4">
         <v>3</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I29" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2954,26 +2962,26 @@
         <v>3</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>29</v>
@@ -2998,29 +3006,29 @@
         <v>3</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3042,29 +3050,29 @@
         <v>3</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K32" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L32" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3078,29 +3086,29 @@
         <v>3</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="4">
         <v>3</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K33" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3114,29 +3122,29 @@
         <v>3</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="4">
         <v>2</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3150,29 +3158,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K35" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L35" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3186,29 +3194,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K36" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3222,31 +3230,31 @@
         <v>3</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G37" s="4">
         <v>3</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I37" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K37" s="23" t="s">
+      <c r="L37" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3260,7 +3268,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>19</v>
@@ -3270,17 +3278,17 @@
         <v>3</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K38" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L38" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3294,31 +3302,31 @@
         <v>2</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="4">
         <v>0.5</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I39" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="K39" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="L39" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3332,29 +3340,29 @@
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G40" s="4">
         <v>3</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3368,27 +3376,27 @@
         <v>2</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="4">
         <v>0.5</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3402,29 +3410,29 @@
         <v>2</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G42" s="4">
         <v>2</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="10" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3438,27 +3446,27 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="4">
         <v>3</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3472,29 +3480,29 @@
         <v>2</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="4">
         <v>1.5</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="10" t="s">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N44" s="15"/>
     </row>
@@ -3509,27 +3517,27 @@
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="4">
         <v>1</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3543,10 +3551,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="4">
@@ -3557,13 +3565,13 @@
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3577,31 +3585,31 @@
         <v>2</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G47" s="4">
         <v>1.5</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N47" s="7"/>
     </row>
@@ -3616,29 +3624,29 @@
         <v>2</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="10" t="s">
-        <v>142</v>
+        <v>297</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3652,29 +3660,29 @@
         <v>2</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3688,13 +3696,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" s="4">
         <v>3</v>
@@ -3704,13 +3712,13 @@
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3724,25 +3732,25 @@
         <v>3</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="4">
         <v>2</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="10"/>
       <c r="K51" s="29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3756,29 +3764,29 @@
         <v>2</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G52" s="4">
         <v>2</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="10" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3792,29 +3800,29 @@
         <v>2</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G53" s="4">
         <v>2</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="10" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3828,29 +3836,29 @@
         <v>2</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="10" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3864,29 +3872,29 @@
         <v>2</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G55" s="4">
         <v>2</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="10" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3900,29 +3908,29 @@
         <v>2</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G56" s="4">
         <v>2</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="10" t="s">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3936,29 +3944,29 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G57" s="4">
         <v>4</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
